--- a/Table_3.xlsx
+++ b/Table_3.xlsx
@@ -76,6 +76,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="$D$7:$G$507">
+  <autoFilter ref="$D$7:$G$507">
+    <filterColumn colId="3"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="№ задачи"/>
+    <tableColumn id="2" name="Первое решение"/>
+    <tableColumn id="3" name="Все решения"/>
+    <tableColumn id="4" name="Найдено решений"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,10 +592,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="4" max="4" width="9.421875"/>
-    <col bestFit="1" min="5" max="5" width="15.7109375"/>
-    <col bestFit="1" min="6" max="6" width="12.140625"/>
-    <col bestFit="1" min="7" max="7" width="17.140625"/>
+    <col bestFit="1" min="4" max="4" width="12.00390625"/>
+    <col bestFit="1" min="5" max="5" width="18.140625"/>
+    <col bestFit="1" min="6" max="6" width="14.57421875"/>
+    <col bestFit="1" min="7" max="7" width="19.7109375"/>
   </cols>
   <sheetData>
     <row r="7" ht="14.25">
@@ -7602,5 +7617,8 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>